--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1676374.679631831</v>
+        <v>-1679075.54834923</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.459138119478212</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.8906684920595</v>
+        <v>58.02993390906974</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>78.2794053130596</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.6427844409363</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>303.9399370104081</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>51.56206909053157</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>42.87246866264719</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>51.01746492504022</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>313.1840945215359</v>
+        <v>117.4841375928779</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>67.55403380471499</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>237.7388687522817</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.25298866282712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.33703994142957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>182.2818575038078</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>250.7811435429989</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>127.1562738804005</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,13 +2132,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.95257707283392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T28" t="n">
-        <v>52.47682210853022</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541857</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308925</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3320,10 +3320,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1129.276379452894</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C2" t="n">
-        <v>1129.276379452894</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>771.0106808461439</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1131.760357351357</v>
+        <v>2379.02402606898</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.8408313751036</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8408313751036</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2483.269222023328</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>2194.150884527165</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232067</v>
+        <v>1939.466396321278</v>
       </c>
       <c r="W4" t="n">
-        <v>672.7372331862462</v>
+        <v>1650.049226284317</v>
       </c>
       <c r="X4" t="n">
-        <v>526.6334105186337</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.8408313751036</v>
+        <v>1422.0596753863</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1284.324637962024</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>1144.394367394506</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>1144.394367394506</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4580,37 +4580,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2047.929728198916</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2047.929728198916</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1674.463969937836</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.324637962024</v>
+        <v>1502.660066001257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.3498906720603</v>
+        <v>518.0825382046743</v>
       </c>
       <c r="C7" t="n">
-        <v>369.3498906720603</v>
+        <v>349.1463552767674</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1584.913327220921</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1361.934846415657</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1072.816508919495</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>818.1320207136077</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>818.1320207136077</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X7" t="n">
-        <v>590.1424698155904</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.3498906720603</v>
+        <v>699.731003034914</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>1321.266375419621</v>
       </c>
       <c r="C8" t="n">
-        <v>1114.902695549579</v>
+        <v>1321.266375419621</v>
       </c>
       <c r="D8" t="n">
-        <v>756.6369969428285</v>
+        <v>963.000676812871</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1321.266375419621</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.0245808582381</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="C10" t="n">
-        <v>325.0883979303312</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>976.6986199621423</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>722.0141317562554</v>
+        <v>962.1544032232076</v>
       </c>
       <c r="W10" t="n">
-        <v>722.0141317562554</v>
+        <v>962.1544032232076</v>
       </c>
       <c r="X10" t="n">
-        <v>494.0245808582381</v>
+        <v>734.1648523251903</v>
       </c>
       <c r="Y10" t="n">
-        <v>494.0245808582381</v>
+        <v>734.1648523251903</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703123</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703123</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703123</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>547.5889719879192</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>400.6990244900088</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782968</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,7 +5285,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.3159148556</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,22 +5525,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.889218672183</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0966395286528</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,28 +5756,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.2064322262529</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.448174698413</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.05565446885</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1854.980427813048</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1600.295939607161</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1310.8787695702</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.889218672183</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0966395286528</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580128</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345491</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,28 +6619,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,49 +7093,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>294.8344935184735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>255.5240487471574</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>98.24448441976887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.2747035440024</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>114.3241751697775</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>81.06687094810081</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>83.27114962944172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.9026168854363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>35.40333084624524</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>98.55338150863665</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.6320762792609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T28" t="n">
-        <v>164.928628218758</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="9">
@@ -26350,7 +26350,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42973.54596471231</v>
+        <v>42973.54596471228</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467442</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719708</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.368461719693</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719692</v>
       </c>
-      <c r="H4" t="n">
-        <v>7507.368461719695</v>
-      </c>
       <c r="I4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719656</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
+        <v>15498.22772481315</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481313</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>15498.22772481313</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481314</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481314</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151196.092970025</v>
+        <v>-1151590.913911179</v>
       </c>
       <c r="C6" t="n">
         <v>-102895.3705069465</v>
@@ -26528,40 +26528,40 @@
         <v>-102895.3705069465</v>
       </c>
       <c r="E6" t="n">
-        <v>-495043.3499566718</v>
+        <v>-495078.0878821067</v>
       </c>
       <c r="F6" t="n">
-        <v>12442.09166787411</v>
+        <v>12407.35374243844</v>
       </c>
       <c r="G6" t="n">
-        <v>12442.09166787412</v>
+        <v>12407.35374243843</v>
       </c>
       <c r="H6" t="n">
-        <v>12442.09166787406</v>
+        <v>12407.35374243847</v>
       </c>
       <c r="I6" t="n">
-        <v>12442.09166787412</v>
+        <v>12407.35374243846</v>
       </c>
       <c r="J6" t="n">
-        <v>-155163.0861421084</v>
+        <v>-155197.8240675442</v>
       </c>
       <c r="K6" t="n">
         <v>-14933.79609271794</v>
       </c>
       <c r="L6" t="n">
-        <v>4493.921900913876</v>
+        <v>4493.921900913861</v>
       </c>
       <c r="M6" t="n">
-        <v>-128113.3718280127</v>
+        <v>-128113.3718280126</v>
       </c>
       <c r="N6" t="n">
-        <v>4493.921900913992</v>
+        <v>4493.921900913963</v>
       </c>
       <c r="O6" t="n">
-        <v>4493.921900914036</v>
+        <v>4493.921900913963</v>
       </c>
       <c r="P6" t="n">
-        <v>-14933.79609271779</v>
+        <v>-14933.79609271784</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241339</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.3472701639941</v>
+        <v>213.8838295772064</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>142.4692906841523</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>102.9361087313034</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>276.1901893796033</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>105.7430043555652</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>143.6449954366972</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>68.7462755507259</v>
+        <v>264.4462324793839</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,7 +27910,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>112.2779463772223</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>48.48828536891887</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28852,13 +28852,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30040,10 +30040,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717718</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>152.1871379112071</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>369.1789913099997</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>592.5148541563236</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>465.1758167018094</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202787</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629545</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998939</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>25.34951124454042</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>226.5827468655553</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
